--- a/Batch/19/Day_6.xlsx
+++ b/Batch/19/Day_6.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28829"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29011"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac217573afc2a6e8/Work/Acciojob/Modules/Excel/Batch/18/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Work\Acciojob\Modules\Excel\Batch\19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{A9D8BBC3-F891-4D70-9116-8D94541DD169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0A6FDC1-EEC6-486F-B4F0-C3240E982A17}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C93877-D033-44E5-A661-485ECD2D7C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E4FAC7A2-194B-4DBE-ACA1-546198A701A9}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{E4FAC7A2-194B-4DBE-ACA1-546198A701A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="3" r:id="rId1"/>
     <sheet name="Recap" sheetId="1" r:id="rId2"/>
     <sheet name="Agenda" sheetId="2" r:id="rId3"/>
     <sheet name="Questions" sheetId="5" r:id="rId4"/>
-    <sheet name="Discussion" sheetId="9" r:id="rId5"/>
+    <sheet name="Discussion" sheetId="10" r:id="rId5"/>
+    <sheet name="Data Validation" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,8 +40,50 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="3">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="3">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4157" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="338">
   <si>
     <t>Intro To excel</t>
   </si>
@@ -702,9 +745,6 @@
     <t>Handling Gaps in Charts</t>
   </si>
   <si>
-    <t>Pivot Tables</t>
-  </si>
-  <si>
     <t>Pie Chart Problem</t>
   </si>
   <si>
@@ -4122,7 +4162,145 @@
     <t>Xlookup</t>
   </si>
   <si>
-    <t>Data  Visualization</t>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>Data Visualization</t>
+  </si>
+  <si>
+    <t>It increases the reach</t>
+  </si>
+  <si>
+    <t>Easy to understand</t>
+  </si>
+  <si>
+    <t>Time efficient</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Better Communication</t>
+  </si>
+  <si>
+    <t>easy to identify trends</t>
+  </si>
+  <si>
+    <t>better decision making</t>
+  </si>
+  <si>
+    <t>Easy to get insights</t>
+  </si>
+  <si>
+    <t>To simplify complex Data</t>
+  </si>
+  <si>
+    <t>Composition</t>
+  </si>
+  <si>
+    <t>Comparison</t>
+  </si>
+  <si>
+    <t>Trend</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Data Validation</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Select the Data range</t>
+  </si>
+  <si>
+    <t>Go to Data Menu</t>
+  </si>
+  <si>
+    <t>Data Tools Group</t>
+  </si>
+  <si>
+    <t>Select Data Validation</t>
+  </si>
+  <si>
+    <t>Input  Message</t>
+  </si>
+  <si>
+    <t>Error Alert</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Whole No</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>TextLength</t>
+  </si>
+  <si>
+    <t>Acciojob India</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Length </t>
+  </si>
+  <si>
+    <t>Max Length</t>
+  </si>
+  <si>
+    <t>One UpperCase</t>
+  </si>
+  <si>
+    <t>One Lower Case</t>
+  </si>
+  <si>
+    <t>One Special Character</t>
+  </si>
+  <si>
+    <t>One Number</t>
+  </si>
+  <si>
+    <t>Mobile no</t>
+  </si>
+  <si>
+    <t>10 digits</t>
+  </si>
+  <si>
+    <t>Start 6 7 8 9</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -4162,7 +4340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4187,6 +4365,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4200,7 +4396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -4210,6 +4406,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4227,6 +4426,971 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>952</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>151018</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>46201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA23B3F-4BA2-BBE0-6D8F-4B8F91E158F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="812482" y="1293044"/>
+          <a:ext cx="1414034" cy="1308715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>640772</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>494470</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>122666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC648FA-B8D6-8F43-3B0C-64E6218E4680}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6277840" y="2357395"/>
+          <a:ext cx="1801995" cy="851804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>29689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>502645</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1532CDFA-CC46-7F5B-7BF6-7EEF5453C34B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296025" y="3302825"/>
+          <a:ext cx="1791984" cy="979095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>617001</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>30541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4621BA40-D859-A7C8-807D-88E7E6167FC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6291262" y="4371909"/>
+          <a:ext cx="1911103" cy="932018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>511235</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>172031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>630564</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{332F0183-B21D-43CD-0C13-D1792E595BF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="701735" y="5427043"/>
+          <a:ext cx="2000982" cy="1811499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247472</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>572552</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>179956</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="14" name="Ink 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FB092C-1385-4AED-9886-768B3054B085}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6673362" y="8069047"/>
+            <a:ext cx="325080" cy="265238"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="Ink 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FB092C-1385-4AED-9886-768B3054B085}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6667235" y="8063035"/>
+              <a:ext cx="337334" cy="277262"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>331710</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95909</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>107040</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="19" name="Ink 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234CE9C3-CF5A-3D0C-D13D-7B9737C71B3B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7403442" y="7992727"/>
+            <a:ext cx="410040" cy="263880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="19" name="Ink 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234CE9C3-CF5A-3D0C-D13D-7B9737C71B3B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7397322" y="7986599"/>
+              <a:ext cx="422280" cy="276137"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>315870</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>59356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>429990</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95078</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="20" name="Ink 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F59F8533-FDEE-BB7C-5488-21AB7558B57B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7387602" y="8213685"/>
+            <a:ext cx="114120" cy="30960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="20" name="Ink 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F59F8533-FDEE-BB7C-5488-21AB7558B57B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7381482" y="8207565"/>
+              <a:ext cx="126360" cy="43200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>357630</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>6668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>468870</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>126188</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="21" name="Ink 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10805B7-44CD-5AD4-301A-DDBBCCAA0F85}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7429362" y="8342205"/>
+            <a:ext cx="111240" cy="119520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="21" name="Ink 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10805B7-44CD-5AD4-301A-DDBBCCAA0F85}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7423242" y="8336085"/>
+              <a:ext cx="123480" cy="131760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>422070</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>179468</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>570390</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>16703</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="28" name="Ink 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0B62EE-BF3C-31F2-C7BF-216477D640EF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7493802" y="8515005"/>
+            <a:ext cx="148320" cy="13680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="28" name="Ink 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0B62EE-BF3C-31F2-C7BF-216477D640EF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7487682" y="8508885"/>
+              <a:ext cx="160560" cy="25920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447630</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>18016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7873</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>172178</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="36" name="Ink 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8898D738-BEA4-8C22-4094-E2972BED84B7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7519362" y="8715967"/>
+            <a:ext cx="196560" cy="149400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="36" name="Ink 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8898D738-BEA4-8C22-4094-E2972BED84B7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7513242" y="8709832"/>
+              <a:ext cx="208800" cy="161670"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228029</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114071</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>164258</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="37" name="Ink 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F42A4F6-B361-DF3B-EBF6-447B68C009F9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7945602" y="8363805"/>
+            <a:ext cx="527122" cy="493642"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="37" name="Ink 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F42A4F6-B361-DF3B-EBF6-447B68C009F9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7939481" y="8357680"/>
+              <a:ext cx="539364" cy="505893"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-22T17:22:10.461"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">35 20 10885,'0'0'8172,"2"-5"-7556,4-9-288,-3 14 19,-2 27 42,-2-7-522,-1 28 197,-12 63 1,0 10 14,9-56-52,-5 157 256,37-219-206,-1-4-104,1 0 1,45-10-1,-61 9-17,-1 0 0,1-1 1,-1-1-1,0 0 0,0 0 0,0-1 1,-1 0-1,0 0 0,14-12 0,-19 13 37,-1 0-1,0 0 1,0 0-1,0 0 0,-1 0 1,1-1-1,-1 0 0,0 1 1,-1-1-1,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,0-8-1,1 11 3,-1 0-1,0-1 1,-1 1-1,1 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,0 1-1,0-1 1,0 0 0,-1 0-1,1 1 1,0-1 0,-1 1-1,0-1 1,1 1 0,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,-1 0-1,1 0 1,0 0 0,0 0-1,-3 1 1,3-1 1,1 1-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,1-1 0,-1 1-1,1 0 1,-1-1 0,1 1-1,0 0 1,-1-1 0,1 1-1,0 0 1,0 2 0,2 49-48,-1-52 51,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1-1 0,0 1 1,-1-1-1,1 1 0,0-1 1,-1 0-1,1 0 0,0 0 0,0 0 1,-1 0-1,3 0 0,2 0-21,0-1 0,0 1 0,0-1 0,0 0 0,0 0-1,0 0 1,5-3 0,3-4-11,-1 0 0,0-1 0,0 0 0,-1-1 0,0-1 0,-1 0 1,0 0-1,0-1 0,-2-1 0,1 1 0,-2-1 0,0-1 0,0 0 0,-1 0 0,-1-1 0,0 1 0,-2-1 0,1 0 0,4-32 0,-2-113 188,-11 148 353,-6 20-407,-6 21-217,2 12 146,1 1-1,2 1 0,2-1 0,-4 65 0,4 177 193,9-253-208,5 1 7,-5-31-17,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 0,0-1 1,0 1-1,1-1 0,-1 1 0,0 0 1,0-1-1,1 1 0,-1-1 0,0 1 1,1 0-1,-1-1 0,0 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,1 1 0,-1-1 1,1 1-1,-1-1 0,1 0 0,-1 0 1,1 1-1,0-1 0,-1 0 0,1 0 0,0 0 1,-1 1-1,1-1 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0-1 1,1-1 4,-1-1 0,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,-1-1 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 1 0,-1-6 1,1 0-12,0-4-39,0-1 0,0 1-1,-2-1 1,1 1 0,-2 0-1,1 0 1,-2 0 0,0 0-1,0 0 1,-1 1 0,-11-20-1,16 31 26,0 0 1,0-1-1,0 1 0,-1-1 0,1 1 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 1,0 1-1,0 0 0,1-1 0,-1 1 0,0-1 1,0 1-1,0-1 0,1 1 0,-1 0 0,0-1 1,0 1-1,1 0 0,-1-1 0,0 1 0,1 0 1,-1-1-1,0 1 0,1 0 0,-1 0 0,0-1 1,1 1-1,-1 0 0,1 0 0,-1 0 0,1-1 1,22-6-133,-15 4 116,10-4-137,0-1 0,-1 0 0,0-1 0,-1-1 0,0-1 0,0-1-1,25-24 1,-32 27 166,0 0 1,-1-1-1,0 0 0,-1-1 0,0 1 0,-1-1 0,0-1 1,0 1-1,-1-1 0,-1 0 0,0 0 0,4-22 0,-1-85 2484,-21 180-2421,3-1 0,3 1 0,0 64 0,7-104-352,0-8 298,1 0-1,0-1 1,4 24-1,-3-33-266,-1-1-1,1 1 1,0 0-1,0-1 0,0 0 1,0 1-1,1-1 0,-1 0 1,0 1-1,3 1 1,-3-3-140,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1-1,-1 1 1,1-1 0,0 0 0,-1 0 0,3 0 0,1 0-3654</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="171.99">605 381 11669,'0'0'5475,"42"-22"-5475,19 11-528,30-4-1601,12-7-3794</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-22T17:22:12.665"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">251 210 10981,'0'0'4082,"4"-15"-3703,3-16 853,-1-1 1,4-61-1,-10 92-1196,0-1 0,0 1-1,0-1 1,0 1 0,0-1-1,-1 1 1,1-1-1,0 1 1,-1-1 0,1 1-1,-1 0 1,1-1-1,-1 1 1,0-1 0,0 1-1,1 0 1,-1 0 0,0 0-1,0-1 1,0 1-1,0 0 1,0 0 0,-1 0-1,1 1 1,-2-3-1,0 3-15,0-1 0,0 0 0,1 1 0,-1-1-1,0 1 1,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 1 0,-5 0 0,0 2-22,0-1 0,0 1 0,1 0 1,-1 1-1,1 0 0,0 0 0,-1 0 1,2 1-1,-7 6 0,8-7-1,1 1 0,0 0 0,1 0 0,-1 1-1,1-1 1,0 1 0,1-1 0,-1 1 0,1 0-1,0 0 1,1 0 0,-1 0 0,1 0 0,0 1-1,1-1 1,0 0 0,0 0 0,0 1 0,0-1-1,1 0 1,2 7 0,3 11 1,1-1 1,2 0-1,0 0 0,13 22 1,-6-14-19,-14-27 18,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,-1-1 0,1 0-1,-1 0 1,1 1 0,-1-1 0,-1 7 0,0-8 3,0-1-1,0 1 1,0-1 0,0 0 0,0 1 0,0-1-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,0-1 0,0 1 0,0-1-1,0 1 1,-1-1 0,1 0 0,0 0 0,-1 0-1,-3 1 1,-6 3 35,0-1-1,-1-1 1,-25 4-1,36-6-20,-1-1-1,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,0-1-1,0 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,1-1 1,-1 1-1,1 0 0,-1-1 1,1 1-1,0-1 0,0 1 0,0-1 1,0 0-1,0 0 0,-2-4 1,3 4 10,44 2-247,35 5 296,-49-1-365,-1-2 0,2-1 0,38-4 0,-62 3 254,0-1 0,0 0-1,0-1 1,0 1-1,0-1 1,0 0 0,0 0-1,-1-1 1,1 0-1,-1 0 1,1 0 0,-1-1-1,0 0 1,-1 0-1,1 0 1,-1 0 0,1-1-1,-1 1 1,-1-1-1,7-11 1,-6 7 135,-1-2 0,0 1 1,-1 0-1,0-1 0,-1 1 0,0-1 1,0 1-1,-2-15 0,1 21 102,0 3 194,-1 21-326,-9 126 272,10-144-372,0-1 0,0 0 0,0 0 0,1 1 1,-1-1-1,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,2-1 0,1 1-376,0 0 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 0 0,1 1 1,0-1-1,4-4 0,15-18-5188</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="154.81">565 112 10181,'0'0'10452,"-27"-63"-10452,27 81-3121,0 3 96,0 1-8773</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="902.33">586 310 14695,'0'0'4076,"10"15"-3401,31 48-293,-38-57-340,-1-1 1,1 0-1,-1 1 1,-1 0-1,1-1 1,-1 1-1,0 0 1,0 7 0,0-11-28,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0-1 1,-1 1-1,0 0 0,1 0 0,-1 0 1,0 0-1,0-1 0,0 1 1,0-1-1,-3 4 0,3-10 193,1 0-1,-1 0 1,1 0 0,0 0 0,0 0-1,2-10 1,2 8-320,-1 1 0,1 0-1,0 0 1,1 0 0,0 1-1,-1-1 1,2 1 0,-1 0 0,1 1-1,-1-1 1,1 1 0,1 0 0,-1 0-1,0 1 1,1 0 0,0 0 0,10-2-1,6-3-657,1 2 0,-1 1 0,47-5 0,-32 8 319,-37 2 801,-17 2 962,7 2-989,1 0-1,0 0 1,0 1 0,0 0-1,-9 8 1,14-11-269,0 0 1,0 1 0,0-1-1,1 1 1,-1-1 0,1 1 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,1 1 0,-1-1-1,1 0 1,0 1 0,-1 3 0,2-6-97,1 0 1,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1-1,0 1 1,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0-1,1-1 1,36-7-1579,-33 4 1422,0 0-1,-1 1 0,0-1 1,1-1-1,-1 1 0,4-7 1,-1 4 3509,-7 8-3323,0 1 1,0-1-1,0 0 0,0 1 1,1-1-1,-1 1 0,0-1 1,1 0-1,-1 1 0,1-1 0,-1 0 1,1 0-1,0 1 0,0-1 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1-1 1,1 2-1,1-1-62,-1 1 0,1-1 1,0 0-1,0-1 0,0 1 0,0-1 1,0 1-1,-1-1 0,7-1 0,0 0-35,0-1-1,0 1 1,1-2-1,-2 0 0,1 0 1,15-7-1,-19 6 113,1 0-1,-1-1 1,0 0 0,-1 0-1,1 0 1,7-11 0,-1-7 3649,-11 121-3775,-2 119 100,0-212-115,1 1 0,-1-1 0,0 0 1,0 0-1,0 1 0,-1-1 0,1 0 1,-2 0-1,1 0 0,-5 8 0,5-11-249,0 1-1,0-1 1,0 1 0,-1-1-1,1 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,-1-1-1,0 1 1,-5 1-1,-15 1-6756</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1059.33">1059 25 11445,'0'0'5075</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-22T17:22:18.370"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6 85 11077,'0'0'5581,"-5"-1"-2491,49-15-2622,1 2 1,63-11 0,11-4-541,-194 32-80,-65 25-302,140-28 435,0 1-1,0-1 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 0 1,0 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,1 0 1,-1 1-1,0-1 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,86 0-1828,-27 0-3435,-36 0-19</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-22T17:22:18.961"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">305 111 13030,'0'0'6910,"0"-13"-6246,3-41-314,-3 52-311,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,-1 0-1,1 1 1,0-1-1,-1 1 1,1-1-1,-1 1 1,0-1-1,0 1 1,1-1-1,-1 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,0 1-1,-1-1 1,1 0-1,-1 0 1,1 0-1,-1 1 1,1-1-1,-1 1 1,1-1-1,-4 0 1,-3 0 56,1 1 0,-1-1 0,0 1 1,1 0-1,-11 2 0,12-1-69,3-1-28,-1 1-1,0 0 1,0 1-1,1-1 1,-1 0-1,1 1 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,0 1-1,0 0 1,0-1-1,1 1 1,-1 0-1,1 0 1,0 0-1,0 1 1,0-1-1,0 0 1,1 1-1,-1-1 1,1 1-1,0 0 1,0-1-1,0 1 1,0 0 0,1 0-1,0 0 1,-1-1-1,1 1 1,1 0-1,-1 0 1,1 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,1-1 1,-1 1-1,1-1 1,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,4 4-1,48 29-850,-45-31 711,-1 0-1,1 0 0,-1 1 1,0 0-1,-1 0 0,1 1 1,12 14-1,-19-19 147,-1-1 0,1 1 0,0-1 0,-1 0 1,1 1-1,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,-1 1 1,1-1-1,-1 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0-1 0,0 1 0,-1 0 1,1 0-1,-1-1 0,1 1 0,0 0 0,-3 0 0,-5 3 108,-1 0-1,1-1 1,-1 0 0,0-1-1,-12 2 1,-1-1-64,0-1-1,-1-1 1,1-1-1,-37-4 1,57 3-256,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,1-1 1,-1 1-1,1-1 0,-5-3 1,-8-13-5412,10 3-4101</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-22T17:22:23.918"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 37 14647,'0'0'6002,"11"-13"-6146,24 9 144,14-1 64,20-1-64,7 4-784,7-3-1441,5 3-2593</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-22T17:22:27.241"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">230 142 15047,'0'0'1003,"-2"-14"-661,-5-44 332,7 55-587,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1 0 0,0 0-1,1 0 1,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,-6 0 0,-3-1 289,-1 1 0,1 0 1,-1 1-1,-23 2 0,32-1-339,1 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 1,-1 1-1,1-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,1-1 1,-1 7-1,1-3-37,-1 1 1,1 0 0,0 0 0,0-1-1,1 1 1,0 0 0,1-1-1,0 1 1,0 0 0,0-1-1,1 0 1,0 0 0,5 9 0,9 5-132,1-2 0,0 0 0,39 30-1,9 9-515,-65-58 651,-1 1-1,1-1 0,-1 1 1,1-1-1,-1 1 1,1-1-1,-1 1 0,1-1 1,-1 1-1,1-1 0,-1 1 1,0-1-1,1 1 0,-1 0 1,0-1-1,1 1 0,-1 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0-1 0,0 1 1,0 1-1,-17 6 280,-40-8 210,46-1-525,-42-3-91,22-7-6037</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="340.11">207 399 10869,'0'0'5701,"16"0"-4105,54-1-615,-64 0-911,1 1 0,-1-1 0,0 0-1,1-1 1,-1 1 0,0-1 0,0 0-1,0-1 1,-1 0 0,1 0 0,0 0-1,-1 0 1,0-1 0,0 0 0,0 0-1,0-1 1,-1 1 0,1-1 0,-1 0-1,-1 0 1,1 0 0,0-1 0,-1 1-1,0-1 1,-1 0 0,1 0 0,-1 0-1,0 0 1,-1 0 0,1 0 0,-1 0-1,-1-1 1,1 1 0,-1-11 0,0-33 1296,0 49-1070,-1 2-272,-1 0 0,1 1 1,0-1-1,0 0 1,0 0-1,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,1-1 1,-1 1-1,1 0 1,-1-1-1,1 1 0,-1 0 1,1-1-1,0 1 1,0 0-1,0 3 0,0-2 21,-3 15 35,1 1-1,0-1 0,2 1 0,2 26 1,-2-42-138,0 0-1,1 0 1,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1-1,1 0 1,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 0-1,-1 1 1,1-1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1-1,0-1 1,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,-1 0-1,4-1 1,-4 0-311,1 1 0,-1-1 1,0 0-1,0 1 0,1-1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 1,1 0-1,-1 0 0,0 0 0,2-2 0,9-24-8144</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="512.98">522 25 16359,'0'0'7476,"-15"-24"-7476,15 26-432,0 11-1105,0 4-1760,0 3-5716</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-22T17:22:21.705"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 409 11141,'0'0'2841,"9"-14"-2414,-4 5-359,3-4 37,1-1 0,-2 0 0,0 0 0,-1-1 0,0 0 0,-1 0 0,-1-1 0,0 1 0,2-26 0,-4 11 82,-1-38 68,-1 64-176,-1 1-1,1 0 1,-1-1 0,1 1 0,-1-1-1,0 1 1,0 0 0,-1 0 0,1-1 0,0 1-1,-1 0 1,0 0 0,0 0 0,0 1-1,-3-4 1,5 6-63,0 0 0,0-1 0,-1 1 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 1,1 1-1,-10 16 140,-2 18-91,7-6 115,2-1 0,1 1 0,3 47 0,0-25 73,-1-45-234,0-1 0,1 1 0,0 0 0,1 0 0,-1 0 0,1-1-1,0 1 1,1-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,1 0-1,6 6 1,-9-9-8,1 0 0,0 0 0,-1-1 1,1 1-1,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 1,0 1-1,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,3-1 0,0-2-14,1 0-1,-1-1 0,0 1 1,0-1-1,-1 0 0,1 0 1,-1 0-1,-1 0 0,1-1 1,-1 1-1,0-1 0,0 1 0,-1-1 1,0 0-1,0 0 0,-1 0 1,0 1-1,0-1 0,-1 0 1,-2-12-1,3 18 1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0 0 0,0-1 1,0 1-1,-1-1 0,1 1 0,0 0 1,0-1-1,-1 1 0,1-1 0,0 1 0,0 0 1,-1 0-1,1-1 0,0 1 0,-1 0 0,1-1 1,-1 1-1,1 0 0,0 0 0,-1 0 1,1-1-1,-1 1 0,1 0 0,0 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 1 0,-1-1 1,1 0-1,-1 0 0,0 1 0,-12 12-170,12-10 174,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,1 0-1,0 1 0,0-1 1,0 0-1,0 0 0,1 0 1,-1 0-1,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 1,1 1-1,-1 0 0,1 0 1,3 3-1,-4-5-3,1 0 0,0 1 0,0-1-1,-1 0 1,1 0 0,0 0 0,0 0 0,0-1-1,1 1 1,-1-1 0,0 1 0,0-1 0,0 1 0,0-1-1,0 0 1,1 0 0,-1 0 0,0 0 0,0-1-1,0 1 1,0-1 0,1 1 0,-1-1 0,0 0 0,0 1-1,0-1 1,0 0 0,-1 0 0,1-1 0,0 1 0,0 0-1,2-3 1,2-1 8,0 1 1,-1-1-1,1-1 0,-1 1 1,0-1-1,-1 0 0,0 0 1,1 0-1,-2 0 0,1-1 1,-1 0-1,0 0 0,-1 0 1,4-13-1,-2-2 38,-1 1 0,-2-1 0,0-34 0,-1 33-36,-10 203 840,1-39-139,6-77-403,0-26-168,2 1 1,4 46 0,-3-84-132,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,-1 0-1,1-1 1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,2 0 0,-1-1 14,0 0 0,0 0 1,0 1-1,-1-1 0,1 0 1,0-1-1,0 1 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-1-1 1,1 1-1,-1-1 0,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,1-2 1,1-5-36,-1 0 1,1 0 0,-1-1 0,-1 1 0,0-1 0,0 1-1,-1-1 1,0 1 0,-1-1 0,-3-16 0,2 19 1,0 1 0,0-1 1,-1 1-1,0 0 0,0 0 0,0 0 0,-1 0 1,0 0-1,0 1 0,0 0 0,-1-1 1,0 2-1,0-1 0,0 1 0,-10-7 0,-53-20 235,73 31-238,0 0 1,0 0-1,0 0 1,0-1-1,0 0 1,0 0-1,7-3 1,5 0-21,0 1-92,0 0 0,29-12 0,-7-4-2994,-11-8-6552,-23 16 1521</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="299.74">472 101 1681,'0'0'15031,"1"-5"-13721,-6 199 3217,5-106-6504,0-10-3860,0-72-270</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="467.66">375 270 14791,'0'0'5282,"34"-8"-6098,8 8-1137,0 0-1745,-1 0-5602</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="779.46">782 253 15335,'0'0'5965,"-9"-2"-5794,215-13 75,-200 14-379</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1109.68">1206 127 10677,'0'0'10837,"3"11"-10600,0 38 793,-3 60 0,-2-33-4813</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1543.18">1253 29 13014,'0'0'2124,"-17"-5"-769,-9-2-331,-1 2-1,1 0 1,-44-1 0,65 6-995,0 1 0,0 0-1,1 0 1,-1 0 0,1 1-1,-1-1 1,1 1 0,-1 0 0,1 0-1,0 1 1,0 0 0,0-1-1,0 1 1,1 0 0,-1 1 0,1-1-1,0 1 1,0-1 0,0 1-1,0 0 1,0 0 0,1 0 0,-2 6-1,-3 4 17,1 0 0,0 0 0,1 1 0,1-1 0,1 1-1,-3 17 1,4-8 119,0-1 0,1 0 0,2 1-1,0-1 1,7 38 0,-6-50-136,1-1 0,0 0 1,0 0-1,1 0 0,0 0 0,1-1 0,0 1 1,0-1-1,1-1 0,1 1 0,-1-1 1,1 0-1,0 0 0,16 12 0,-16-16-42,0 0 0,0-1 0,0 1 0,0-1 0,0-1 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 0 0,1 0 0,0-1 0,0 0 0,-1-1 0,1 1 0,0-2 0,8-1 0,-1-1-24,0 0-1,-1-1 1,0 0-1,0-1 1,0-1-1,-1 0 0,21-16 1,-22 14 29,0-1 1,-1-1 0,-1 0-1,0-1 1,0 0-1,-1 0 1,-1-1-1,0 0 1,-1-1-1,0 0 1,-1 0-1,0 0 1,4-21-1,-7 25 12,-1 1-1,0-1 0,-1 0 0,0 1 0,-1-1 0,0 0 0,-1 0 0,0 0 0,0 1 1,-1-1-1,0 1 0,0-1 0,-1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 1 1,-1-1-1,1 2 0,-13-14 0,12 16 13,1 0 1,-1 1-1,0 0 0,-1 0 0,1 1 1,-1 0-1,0 0 0,0 0 1,0 1-1,0 0 0,0 1 1,0-1-1,0 1 0,-1 1 0,1-1 1,-15 2-1,8 0-307,0 1 0,1 0-1,-17 5 1,-31 16-4220,30-5-1595</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3494.83">4 1146 14487,'0'0'803,"9"-13"-545,10-16-94,25-49 0,-37 63-108,0 0-1,-1-1 0,0 0 1,-1 0-1,-1-1 0,3-26 0,-6-40 1285,-3 68 166,-4 55-1110,-1 10-224,2-23 1,2 1 1,0 0-1,2 0 0,1 0 0,1 0 0,6 36 1,-4-56-151,0 0 0,1 0 0,-1 0 0,1-1 0,1 1 0,-1-1 0,1 0 0,8 8 0,-11-13-57,-1 1 0,1-1 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,1-1-1,-1 1 1,1-1 0,0 0 0,-1 1 0,1-1-1,0-1 1,0 1 0,0 0 0,-1-1 0,1 1-1,0-1 1,0 0 0,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,5-2 0,-6 1-11,0-1 0,-1 1 1,1 0-1,-1-1 0,1 1 1,-1-1-1,1 0 0,-1 1 1,0-1-1,0 0 0,1 0 0,-1 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,0-5 0,1-50-384,-2 35 442,0 15 172,3 5 597,9 5-824,-5-2 41,0 0 0,1 0 1,-1 0-1,0-1 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,-1-1 0,0 1 0,1-1 0,-1 0 1,-1 0-1,1 0 0,-1-1 0,6-6 0,-3 1 15,-1 0-1,1-1 1,-2 0 0,1 0 0,-2 0-1,1-1 1,-2 0 0,1 0 0,-2 0-1,1 0 1,0-22 0,-4-43 1867,-15 135-1766,2 2 0,3 0 0,3 0 1,-2 100-1,9-120-78,-1-24-21,2 1-1,0-1 1,1 0-1,5 27 1,-6-41-16,0-1-1,1 0 1,-1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1-1,0-1 1,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,2-1 0,-1 1-13,1-1 1,-1 0 0,0 0 0,0 0-1,0 0 1,-1-1 0,1 1 0,0 0-1,0-1 1,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,0 0 0,1 0-1,-1 0 1,0 0 0,0-2-1,2-2 10,-1 1-1,-1-1 0,1 0 0,-1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-2 0 0,1-1 0,-1 1 0,1 0 1,-2 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1 0 1,0 1-1,0-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,-6-3 0,-15-12 790,25 18-774,1 1 1,0 0-1,-1 0 1,1-1-1,0 1 1,-1 0 0,1-1-1,0 1 1,0-1-1,-1 1 1,1 0-1,0-1 1,0 1 0,0 0-1,-1-1 1,1 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,3-1-82,0 0 0,-1 1 0,1-1 1,0 1-1,0 0 0,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,4 0 0,12-3-652,67-16-5421,-40 8-1029</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3965.95">858 914 16936,'0'0'5821,"-3"-3"-5765,6 1-60,0 1-1,0-1 1,1 0-1,-1 1 0,1 0 1,-1 0-1,1 0 1,0 0-1,-1 1 1,1-1-1,0 1 1,-1 0-1,1 0 1,0 0-1,5 1 1,-7-1-3,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 1-1,-1-1 1,1 1-1,0-1 1,-1 1-1,1 0 1,-1 0-1,1 1 1,-1-1-1,0 0 1,0 1-1,1-1 1,-1 1 0,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 1 1,-1-1-1,0 0 1,0 1-1,0-1 1,0 1-1,0 0 1,0-1-1,-1 1 1,1-1-1,-1 5 1,0 11-15,1-14 27,0 1 0,-1-1 1,0 0-1,0 0 1,0 1-1,0-1 1,-1 0-1,1 1 1,-1-1-1,0 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 1,-2 0-1,1-1 1,0 1-1,-1-1 1,0 0-1,0 1 0,0-1 1,-4 3-1,-18 10 144,20-13-120,-1 1 0,1-1-1,0 1 1,0-1 0,0 1 0,0 1 0,1-1 0,-5 6 0,9-9-27,-1-1 0,1 0 0,0 1-1,0-1 1,0 1 0,-1-1 0,1 1-1,0-1 1,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 1 1,1-1 0,-1 0 0,0 1-1,0-1 1,1 1 0,-1-1 0,0 1 0,0-1-1,1 0 1,-1 1 0,0-1 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 0-1,1 1 1,-1-1 0,1 0 0,-1 0 0,1 1-1,-1-1 1,0 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,34 1 86,-28-2-90,12 1-39,66-3-1296,-77 2 644,-1-1 0,0 0 0,1 0 0,-1 0 0,9-5 0,-5-2-3568,-9-2-3301</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4184.68">690 1066 12598,'0'0'8676,"27"0"-8692,7 2 16,8-2-2017,-4 0-1665,-4 0-9508</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4729.9">1054 796 7764,'0'0'12427,"-9"-9"-11552,2 1-682,6 5-149,-1 0 0,0 0 1,-1 0-1,1 1 0,0-1 0,-1 1 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 1 1,0-1-1,0 1 0,0 0 1,-1 0-1,1 0 0,0 1 1,-8-1-1,1 0 4,0 1 0,0 0 0,0 1 0,-1 0 0,1 1 1,0 0-1,0 1 0,1 0 0,-1 0 0,1 1 0,-1 0 0,1 1 1,0 0-1,1 0 0,-1 1 0,1 0 0,0 0 0,0 1 0,1 0 0,0 1 1,0-1-1,1 1 0,0 1 0,-6 10 0,2 2-25,0 0 1,1 1-1,2 0 0,0 1 1,1-1-1,1 1 0,2 1 1,0-1-1,1 0 0,1 1 1,3 26-1,-1-42-21,0 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,1 0 0,-1-1 0,1 1 0,1-1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 0 0,1-1 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,12 2 0,-6-1-63,1-1 0,0-1 0,0 0 0,0-1 0,0-1 0,0 0 0,0-1 0,1-1 0,-1 0 0,0-1 0,0-1 0,0 0 0,20-7 0,-4-3-112,0-1 1,-1-1-1,0-2 0,38-28 1,-56 36 171,0-1-1,-1-1 1,0 1 0,-1-2-1,0 1 1,-1-2-1,0 1 1,-1-1 0,0 0-1,-1-1 1,-1 0 0,6-17-1,-5 4-6,0 0 0,-2 0 0,-1 0 0,-2-1 0,-1-51 0,-1 75-5,0 1 0,0-1 0,-1 1-1,1-1 1,-1 1 0,0 0-1,0-1 1,0 1 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,-1 1 0,1-1 0,0 1-1,-1-1 1,0 1 0,0 0-1,1 0 1,-1 0 0,0 1 0,0-1-1,-1 1 1,1-1 0,0 1 0,-4-1-1,-8-1-773,-1 0 0,0 1 0,1 1 0,-1 1 0,-18 1 0,17-1-765,-39 2-6644</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4551,7 +5715,7 @@
   </sheetPr>
   <dimension ref="A1:M501"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A473" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -25128,8 +26292,8 @@
   </sheetPr>
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView topLeftCell="A64" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -25229,7 +26393,7 @@
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -25237,7 +26401,7 @@
         <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -25245,7 +26409,7 @@
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -25323,19 +26487,19 @@
         <v>35</v>
       </c>
       <c r="E45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
@@ -25343,19 +26507,19 @@
         <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
@@ -25363,10 +26527,10 @@
         <v>37</v>
       </c>
       <c r="E47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
@@ -25374,7 +26538,7 @@
         <v>38</v>
       </c>
       <c r="L48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.45">
@@ -25469,7 +26633,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
@@ -25525,13 +26689,14 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.9296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -25567,7 +26732,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>220</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -25580,7 +26745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8864C287-2686-4A67-9E7E-246CBEEC566B}">
   <dimension ref="B2:B141"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -25588,272 +26753,272 @@
   <sheetData>
     <row r="2" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B26" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B34" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B42" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B44" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B50" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B52" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B54" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B58" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B60" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B62" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B66" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B68" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B70" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B73" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B75" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B77" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B81" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B83" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B85" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B89" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B91" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B93" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B97" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B99" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B101" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B105" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B107" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B109" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="113" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B113" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B115" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B117" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B121" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B123" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B125" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="129" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B129" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B131" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B133" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B137" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B139" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B141" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -25862,25 +27027,377 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2778733-4E6B-44CE-9AC4-0E5E2CF15549}">
-  <dimension ref="B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C21C7A-B8CF-45B4-B184-B7BC257B0B13}">
+  <dimension ref="B2:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
-    <col min="2" max="2" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
         <v>292</v>
+      </c>
+      <c r="C4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25582366-A3A0-4973-9A3D-F688326C62BE}">
+  <dimension ref="B2:I57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>312</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
+        <v>313</v>
+      </c>
+      <c r="F14" t="s">
+        <v>314</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="F19" t="s">
+        <v>315</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="F25" t="s">
+        <v>316</v>
+      </c>
+      <c r="G25" s="9">
+        <v>5</v>
+      </c>
+      <c r="I25" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="E31" t="s">
+        <v>317</v>
+      </c>
+      <c r="F31" t="s">
+        <v>318</v>
+      </c>
+      <c r="G31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="F32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F33" t="s">
+        <v>321</v>
+      </c>
+      <c r="G33">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F34" t="s">
+        <v>322</v>
+      </c>
+      <c r="G34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F35" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F36" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F37" t="s">
+        <v>325</v>
+      </c>
+      <c r="G37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F42" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F43" t="s">
+        <v>328</v>
+      </c>
+      <c r="G43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F44" t="s">
+        <v>329</v>
+      </c>
+      <c r="G44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F45" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F46" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F47" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F48" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9" x14ac:dyDescent="0.45">
+      <c r="F50" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.45">
+      <c r="F51" t="s">
+        <v>335</v>
+      </c>
+      <c r="G51">
+        <v>7894561230</v>
+      </c>
+      <c r="I51" t="b">
+        <f>LEN(G51)=10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9" x14ac:dyDescent="0.45">
+      <c r="F52" t="s">
+        <v>336</v>
+      </c>
+      <c r="I52" t="b">
+        <f>LEFT(G51,1)&gt;5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9" x14ac:dyDescent="0.45">
+      <c r="F53" t="s">
+        <v>337</v>
+      </c>
+      <c r="I53" t="b">
+        <f>ISNUMBER(G51)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="6:9" x14ac:dyDescent="0.45">
+      <c r="I55" t="b">
+        <f>AND(I51:I53)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.45">
+      <c r="F57" t="b">
+        <f>AND(ISNUMBER(G51),LEN(G51)=10,LEFT(G51)&gt;5)</f>
+        <v>1</v>
+      </c>
+      <c r="I57" t="str">
+        <f>IF(I55,"Valid","Invalid")</f>
+        <v>Valid</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="Enter Values Between 5 &amp; a0 Only." sqref="G9:G12" xr:uid="{0D4CCB7B-5813-45B8-9486-F21B60F67A06}"/>
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Information" error="Please Enter Value Between 5 &amp; 10" sqref="G14" xr:uid="{8E887688-802E-45F2-B06F-88720BB468D6}">
+      <formula1>5</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Warning" error="Please enter values between 5 &amp; 10" sqref="G19" xr:uid="{32594AA3-081E-4C96-9D44-7696FC150B46}">
+      <formula1>5</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="STOP" error="Please enter values between 5 &amp; 10" sqref="G25" xr:uid="{846048E6-998B-49D6-A6C1-121D01A373F2}">
+      <formula1>5</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G32" xr:uid="{9DF04B13-3F67-4D91-A7DD-2CCAB80CA901}">
+      <formula1>100</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G33" xr:uid="{EBA79352-DC39-4757-BE77-845E5F00303B}">
+      <formula1>1.5</formula1>
+      <formula2>1.9</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G37" xr:uid="{45C179AA-7E73-4D09-B6C3-A7B5BD37EC71}">
+      <formula1>10</formula1>
+      <formula2>15</formula2>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G51" xr:uid="{E4CF49C1-AA54-412C-8171-338E0046B500}">
+      <formula1>AND(ISNUMBER(G51),LEN(G51)=10,LEFT(G51)&gt;5)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EB23F965-3C2C-477A-9BD5-7E6F3045FEEA}">
+          <x14:formula1>
+            <xm:f>Dataset!$A$2:$A$501</xm:f>
+          </x14:formula1>
+          <xm:sqref>G34</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>